--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3562.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3562.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177047333250758</v>
+        <v>0.8342026472091675</v>
       </c>
       <c r="B1">
-        <v>1.415530870518562</v>
+        <v>2.607484579086304</v>
       </c>
       <c r="C1">
-        <v>1.903499140850017</v>
+        <v>1.128958702087402</v>
       </c>
       <c r="D1">
-        <v>4.662453261585042</v>
+        <v>1.119112730026245</v>
       </c>
       <c r="E1">
-        <v>3.818908250567573</v>
+        <v>1.292571783065796</v>
       </c>
     </row>
   </sheetData>
